--- a/biology/Botanique/Bernard-Auguste_Journu/Bernard-Auguste_Journu.xlsx
+++ b/biology/Botanique/Bernard-Auguste_Journu/Bernard-Auguste_Journu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard-Auguste Journu, baron de Saint-Magne, (11 décembre 1789, Bordeaux - 2 avril 1854, Bordeaux), est un négociant et homme politique français. Il fut député monarchiste de la Gironde, de 1849 à 1851.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Descendant d'une famille qui a connu une ascension financière remarquable au XVIIIe siècle, il est le fils d'Antoine-Auguste Journu, et le neveu de Bernard Journu-Auber[1], tous deux armateurs et négriers au sein de la maison Journu Frères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendant d'une famille qui a connu une ascension financière remarquable au XVIIIe siècle, il est le fils d'Antoine-Auguste Journu, et le neveu de Bernard Journu-Auber, tous deux armateurs et négriers au sein de la maison Journu Frères.
 Bernard-Auguste devient négociant en vins à Bordeaux, administrateur du dépôt de mendicité de 1827 à 1852 et membre de la commission des hospices en 1828. Il est porté par les monarchistes de son département candidat à l'Assemblée législative dans le département de la Gironde, le 13 mai 1849, et est élu représentant.
 Journu vote avec la majorité antirépublicaine : pour l'expédition de Rome, pour la loi Falloux-Parieu sur l'enseignement, pour la loi restrictive du suffrage universel, etc., et quitte la vie politique en 1851.
 Le 20 mai 1817, il épouse la sœur de Jean-Élie Gautier, député de la Gironde sous la Restauration et pair de France et ministre des Finances sous Louis-Philippe. Il a de ce mariage une fille, épouse Joseph Alexandre de Clouet de Piettre, comte de La Fernandina et vicomte de Jagua, et un fils, Jean-Paul-Auguste Journu.
-En 1824 il rachète l'hôtel Dublan situé cours Clemenceau[3].
-En 1826, dans le cadre de l'Indemnisation par la république d'Haïti des anciens propriétaires français d'esclaves, Bernard-Auguste Journu touche la somme de 853 Francs or[4].
+En 1824 il rachète l'hôtel Dublan situé cours Clemenceau.
+En 1826, dans le cadre de l'Indemnisation par la république d'Haïti des anciens propriétaires français d'esclaves, Bernard-Auguste Journu touche la somme de 853 Francs or.
 </t>
         </is>
       </c>
